--- a/__RESOURCES/HaleyIcons_Set02/resourcegenerator.xlsx
+++ b/__RESOURCES/HaleyIcons_Set02/resourcegenerator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lingam\source\repos\rmsmech\HaleyProject\__RESOURCES\HaleyIcons_Set02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF178E7-6AAA-4566-BD6F-BC3FE8494A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787EC031-D1B9-4105-911A-D5BAA65FF17F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-96" windowWidth="22206" windowHeight="13152" xr2:uid="{860B0934-854C-4523-ACE3-F6AFFDA77800}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>C:\Users\Lingam\source\repos\rmsmech\HaleyProject\__RESOURCES\HaleyIcons_Set02\arrow_line_medium.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Lingam\source\repos\rmsmech\HaleyProject\__RESOURCES\HaleyIcons_Set02\eye.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Lingam\source\repos\rmsmech\HaleyProject\__RESOURCES\HaleyIcons_Set02\eye_large.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Lingam\source\repos\rmsmech\HaleyProject\__RESOURCES\HaleyIcons_Set02\eye_medium.png</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434771DF-3FE8-45DE-8F64-EA44E95D1E20}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E25" sqref="E25:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -831,6 +840,105 @@
         <v>&lt;ImageSource x:Key="arrow_line_medium"&gt;pack://application:,,,/Haley.WPF;component/Images/arrow_line_medium.png&lt;/ImageSource&gt;</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C29" si="7" xml:space="preserve"> MID(A25,$B$6,(LEN(A25)-$B$10+1))</f>
+        <v>eye.png</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D29" si="8">LEFT(C25,LEN(C25)-4)</f>
+        <v>eye</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E29" si="9">D25&amp;","</f>
+        <v>eye,</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F29" si="10">$A$1&amp;D25&amp;$A$2&amp;C25&amp;$A$3</f>
+        <v>&lt;ImageSource x:Key="eye"&gt;pack://application:,,,/Haley.WPF;component/Images/eye.png&lt;/ImageSource&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="7"/>
+        <v>eye_large.png</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="8"/>
+        <v>eye_large</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="9"/>
+        <v>eye_large,</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;ImageSource x:Key="eye_large"&gt;pack://application:,,,/Haley.WPF;component/Images/eye_large.png&lt;/ImageSource&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="7"/>
+        <v>eye_medium.png</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="8"/>
+        <v>eye_medium</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="9"/>
+        <v>eye_medium,</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;ImageSource x:Key="eye_medium"&gt;pack://application:,,,/Haley.WPF;component/Images/eye_medium.png&lt;/ImageSource&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D28" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
